--- a/medicine/Sexualité et sexologie/Sexualité_de_Frédéric_le_Grand/Sexualité_de_Frédéric_le_Grand.xlsx
+++ b/medicine/Sexualité et sexologie/Sexualité_de_Frédéric_le_Grand/Sexualité_de_Frédéric_le_Grand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sexualit%C3%A9_de_Fr%C3%A9d%C3%A9ric_le_Grand</t>
+          <t>Sexualité_de_Frédéric_le_Grand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sexualité de Frédéric le Grand a fait l'objet de nombreux commentaires et débats historiographiques. De nos jours, il est établi que le roi de Prusse était principalement homosexuel et que son orientation sexuelle occupait une place importante dans sa vie. Cependant, la nature de ses relations réelles demeure spéculative.
 Bien qu'il se soit épousé dans un mariage arrangé, Frédéric n'a pas eu d'enfants, son neveu étant son successeur au trône. Ses courtisans préférés étaient exclusivement des hommes et sa collection d'art célébrait l'homoérotisme. Des rumeurs persistantes liant le roi à une activité homosexuelle ont circulé dans toute l'Europe au cours de sa vie, mais il existe peu de preuves définitives de ses relations sexuelles, qu'elles soient homosexuelles ou non. Cependant, en juillet 1750, le roi de Prusse écrit sans équivoque à son secrétaire et lecteur homosexuel, Claude Étienne Darget : « Mes hémorroïdes saluent affectueusement votre verge », ce qui suggère fortement qu'il a eu une relation sexuelle avec des hommes. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sexualit%C3%A9_de_Fr%C3%A9d%C3%A9ric_le_Grand</t>
+          <t>Sexualité_de_Frédéric_le_Grand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Relations homosexuelles possibles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant que jeune prince héritier, Frédéric confia à son mentor, le maréchal général Friedrich Wilhelm von Grumbkow, qu'il se sentait trop peu attiré par le sexe féminin pour pouvoir imaginer se marier. À 16 ans, Frederick semble s'être lancé dans une liaison de jeunesse avec Peter Karl Christoph von Keith, un page âgé de 17 ans. Les rumeurs de liaison se répandirent à la cour et « l'intimité » entre les deux garçons provoqua les commentaires de sa sœur, Wilhelmine, qui écrivit : « Même si j'avais remarqué qu'il était plus familier avec ce page que la décence dictée par sa position ne requérait, je ne savais pas à quel point l'amitié était intime ». Les rumeurs atteignirent finalement les oreilles du roi Frédéric-Guillaume, qui cultivait un idéal d'ultramasculinité à sa cour et se moquait des tendances soi-disant efféminées de son fils. En conséquence, Keith fut démis de ses fonctions auprès du roi et envoyé dans un régiment près de la frontière néerlandaise, tandis que Frédéric fut envoyé au pavillon de chasse du roi à Wusterhausen afin de « se repentir de son péché ».
 Le roi Frédéric-Guillaume pensait peut-être aussi que la relation de Frédéric avec Hans Hermann von Katte était également romantique, un soupçon qui a peut-être joué un rôle dans la condamnation à mort de Katte.
